--- a/biology/Médecine/Bouche/Bouche.xlsx
+++ b/biology/Médecine/Bouche/Bouche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La bouche, également dénommé cavité buccale, ou encore cavité orale, est l'ouverture par laquelle la nourriture d'un animal entre dans son corps. Le mot « gueule » s'utilise aussi, mais avec un sens familier voire grossier lorsqu'il est question d'un être humain. Le terme gueule est scientifiquement réservé aux mammifères du genre Carnivora, ou plus généralement aux vertébrés carnivores.
 Cet organe est habituellement situé au niveau de la Tête. Les planaires, notamment, font exception puisque leur bouche se situe au milieu de leur ventre.
@@ -518,8 +530,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Généralités
-La cavité buccale humaine représente le premier segment du tube digestif. Elle est divisée en deux parties : le vestibule et la cavité buccale proprement dite qui sont séparés par l’arcade dentaire :
+          <t>Généralités</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La cavité buccale humaine représente le premier segment du tube digestif. Elle est divisée en deux parties : le vestibule et la cavité buccale proprement dite qui sont séparés par l’arcade dentaire :
 le vestibule, compris entre les dents  et la face interne des joues et des lèvres ;
 la cavité buccale proprement dite, délimitée en avant et sur les côtés par les dents, et en arrière par l’isthme du gosier (qui sépare la cavité buccale de l’oropharynx).
 Limites de la cavité buccale :
@@ -535,13 +552,7 @@
 C'est dans la cavité buccale qu'aboutissent les canaux excréteurs des glandes salivaires principales (parotides, sous-maxillaires, et sublinguales) et accessoires.
 Fonctions : 
 alimentation: mastication, sécrétion de salive, entré des aliments dans l'organisme (les bébés naissent avec un réflexe de succion qui disparaît progressivement lorsque l'enfant grandit) ;
-communication : phonation (le sigmatisme nasal est dû à un positionnement de la langue qui rend impossible le passage de l'air par la cavité buccale), communication non verbale : mimique, baisers…
-Microbiote buccal
-Le microbiote oral est principalement constitué de bactéries. Plus de 800 espèces colonisent la muqueuse buccale, 1 300 se partagent la crevasse abritée qui sépare la gencive de la dent, et près de 1 000 constituent le biofilm plus exposé au flux salivaire qu'est la plaque dentaire[1]. La salive est un milieu riche de centaines d'espèces de bactéries, dont la concentration va de 10 à 1 000 millions de germes par millilitre, ce qui explique que lors du baiser amoureux, pas moins de 80 millions de bactéries sont échangés en une dizaine de secondes par le mélange des salives.
-La bouche dans la culture
-Surnoms
-Comme élément essentiel du visage, la bouche est à l'origine de nombreux surnoms : par exemple en Breton[2] Beg Sukr, c'est-à-dire « Bec sucré » ou « Bouche à sucre » ; Beg bleud ou Bouche Farine, surnom de boulanger, etc.
-</t>
+communication : phonation (le sigmatisme nasal est dû à un positionnement de la langue qui rend impossible le passage de l'air par la cavité buccale), communication non verbale : mimique, baisers…</t>
         </is>
       </c>
     </row>
@@ -566,13 +577,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Médecine</t>
+          <t>La bouche humaine</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les maladies de la bouche sont étudiées par la stomatologie, spécialité médicale s'intéressant aux pathologies de la cavité buccale (pathologie infectieuse (mycoses), tumorale (carcinomes épidermoïdes), traumatologique (ulcérations de la cavité buccale). Elle est fréquemment couplée avec la chirurgie maxillo-faciale et la chirurgie dentaire. 
-La bouche et le plancher buccal peuvent être le siège de tumeur malignes, ou cancers, en particulier de carcinome épidermoïde.
+          <t>Microbiote buccal</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le microbiote oral est principalement constitué de bactéries. Plus de 800 espèces colonisent la muqueuse buccale, 1 300 se partagent la crevasse abritée qui sépare la gencive de la dent, et près de 1 000 constituent le biofilm plus exposé au flux salivaire qu'est la plaque dentaire. La salive est un milieu riche de centaines d'espèces de bactéries, dont la concentration va de 10 à 1 000 millions de germes par millilitre, ce qui explique que lors du baiser amoureux, pas moins de 80 millions de bactéries sont échangés en une dizaine de secondes par le mélange des salives.
 </t>
         </is>
       </c>
@@ -598,10 +614,87 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>La bouche humaine</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>La bouche dans la culture</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Surnoms</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme élément essentiel du visage, la bouche est à l'origine de nombreux surnoms : par exemple en Breton Beg Sukr, c'est-à-dire « Bec sucré » ou « Bouche à sucre » ; Beg bleud ou Bouche Farine, surnom de boulanger, etc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bouche</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bouche</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Médecine</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les maladies de la bouche sont étudiées par la stomatologie, spécialité médicale s'intéressant aux pathologies de la cavité buccale (pathologie infectieuse (mycoses), tumorale (carcinomes épidermoïdes), traumatologique (ulcérations de la cavité buccale). Elle est fréquemment couplée avec la chirurgie maxillo-faciale et la chirurgie dentaire. 
+La bouche et le plancher buccal peuvent être le siège de tumeur malignes, ou cancers, en particulier de carcinome épidermoïde.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bouche</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bouche</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Divers</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sillon qui relie la lèvre supérieure au nez s'appelle philtrum délimité par des crêtes philtrales latéralement et le tubercule labial, en bas, a sa jonction avec la lèvre supérieure.
 </t>
